--- a/방명록/방명록테이블명세.xlsx
+++ b/방명록/방명록테이블명세.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="방명록" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,30 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>휴_ㄵㅂ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴_writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>go_content</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,6 +205,24 @@
   <si>
     <t>AUTO_INCREMENT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gb_date</t>
+  </si>
+  <si>
+    <t>gb_time</t>
+  </si>
+  <si>
+    <t>gb_writer</t>
+  </si>
+  <si>
+    <t>gb_email</t>
+  </si>
+  <si>
+    <t>gb_password</t>
+  </si>
+  <si>
+    <t>gb_seq</t>
   </si>
 </sst>
 </file>
@@ -638,6 +633,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,18 +673,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,20 +982,20 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26">
         <v>44334</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,18 +1007,18 @@
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="30"/>
       <c r="L3" s="6">
         <v>1</v>
       </c>
@@ -1032,18 +1027,18 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
@@ -1084,23 +1079,23 @@
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1111,22 +1106,22 @@
       <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="27"/>
+      <c r="G7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1136,20 +1131,20 @@
       <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1161,20 +1156,20 @@
       <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>49</v>
+      <c r="G9" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1186,20 +1181,20 @@
       <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>49</v>
+      <c r="G10" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1211,20 +1206,20 @@
       <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>49</v>
+      <c r="G11" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1236,20 +1231,20 @@
       <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>49</v>
+      <c r="G12" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1261,7 +1256,7 @@
       <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1276,7 +1271,7 @@
       <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1291,7 +1286,7 @@
       <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1306,7 +1301,7 @@
       <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1321,7 +1316,7 @@
       <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1393,4 +1388,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>